--- a/trend_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
+++ b/trend_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.09426507213800581</v>
+        <v>0.9057349278619941</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.123660782684749</v>
+        <v>0.876339217315251</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0031764300387383</v>
+        <v>0.996823569961262</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0012372489293318</v>
+        <v>0.998762751070668</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>0.0016117432759512</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.752380952380952</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.23</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0110498991986125</v>
+        <v>1.11265510995568</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.09288781204650071</v>
+        <v>0.123122331562415</v>
       </c>
       <c r="M30" t="n">
-        <v>0.065207953020835</v>
+        <v>2.97331259354719</v>
       </c>
       <c r="N30" t="n">
-        <v>4.80430399939674</v>
+        <v>9.272125916297311</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.59675202974633</v>
+        <v>0.0023529505732909</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.06956521739130429</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.68695652173913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>80</v>
+        <v>0.78</v>
       </c>
       <c r="K31" t="n">
-        <v>1.46456544166187</v>
+        <v>-0.0354495637949836</v>
       </c>
       <c r="L31" t="n">
-        <v>-10.6783630746683</v>
+        <v>-0.069672302522872</v>
       </c>
       <c r="M31" t="n">
-        <v>11.0549331331356</v>
+        <v>-0.0099382012733772</v>
       </c>
       <c r="N31" t="n">
-        <v>1.83070680207733</v>
+        <v>-4.54481587115175</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.768783636774762</v>
+        <v>0.962653146085792</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.841463414634146</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.94</v>
+        <v>10.25</v>
       </c>
       <c r="K32" t="n">
-        <v>0.293157966627807</v>
+        <v>0.0329864532019704</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.636816865012663</v>
+        <v>0.0021493263756053</v>
       </c>
       <c r="M32" t="n">
-        <v>0.867063121938542</v>
+        <v>0.0598946326799031</v>
       </c>
       <c r="N32" t="n">
-        <v>9.9713594091091</v>
+        <v>0.32181905562898</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5</v>
+        <v>0.09280390471552701</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="H33" t="n">
+        <v>0.225609756097561</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.265</v>
+        <v>0.019</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0007239841427155</v>
+        <v>0.0002499575869038</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0222828369479634</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.021036278075091</v>
+        <v>0.0006174125840103</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.273201563288891</v>
+        <v>1.31556624686221</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.464222020750296</v>
+        <v>0.230977336536679</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.774390243902439</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.249317406143345</v>
+        <v>3.33409402099498</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.72716200506676</v>
+        <v>-4.72262791361527</v>
       </c>
       <c r="M34" t="n">
-        <v>2.0564292551818</v>
+        <v>10.1812034362692</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.283315234253801</v>
+        <v>1.50863982850452</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,11 +3553,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3548,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.360257393568128</v>
+        <v>0.134691058742147</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.114649681528662</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.878980891719745</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.68</v>
+        <v>0.0404686490246746</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0281598639455782</v>
+        <v>0.0006232506045553</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.279121931714318</v>
+        <v>-0.000238384574332</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0703031964122685</v>
+        <v>0.0018997635884982</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.765213694173321</v>
+        <v>1.54008255668577</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3620,14 +3644,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3635,31 +3659,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.908428808501064</v>
+        <v>0.0560170114277408</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.0387096774193548</v>
       </c>
       <c r="H36" t="n">
-        <v>0.777777777777778</v>
+        <v>0.406451612903226</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>82.5</v>
+        <v>0.015</v>
       </c>
       <c r="K36" t="n">
-        <v>0.502061855670103</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.256011691984569</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.59964493486139</v>
+        <v>0.000664695177434</v>
       </c>
       <c r="N36" t="n">
-        <v>0.60855982505467</v>
+        <v>2.21565059144677</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3668,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3697,7 +3721,1249 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.197219715278638</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9290322580645159</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0028506503879507</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0031904003173722</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0089999862680847</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.669166757734907</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999993594897591</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.54601226993865</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0264924314096499</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0171077283372366</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.036045885948896</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.347214042066185</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.577771133234058</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.865853658536585</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0003640014561452</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0067712045640935</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.005064180660308</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.06494227585106919</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.783831522985542</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.664634146341463</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8235</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.004676903960719</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0132941546570229</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0049997849745574</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.567930049874804</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.06609755382228211</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.554878048780488</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0008456267232701</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-2.57732114581786e-05</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.001608128488934</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.61071756813365</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.571334658062042</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.957317073170732</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0244877111465444</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.177610762244387</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.14440953459584</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.349325408652559</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0110498991986125</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.09288781204650071</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.065207953020835</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.80430399939674</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>80</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.46456544166187</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-10.6783630746683</v>
+      </c>
+      <c r="M44" t="n">
+        <v>11.0549331331356</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.83070680207733</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.293157966627807</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.636816865012663</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.867063121938542</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9.9713594091091</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0007239841427155</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0222828369479634</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.021036278075091</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.273201563288891</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.464222020750296</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>88</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.249317406143345</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.72716200506676</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.0564292551818</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.283315234253801</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0281598639455782</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.279121931714318</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0703031964122685</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.765213694173321</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.345249057632304</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>91</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.30319590481461</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.02513981844129</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.653758766383187</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.333182312983088</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Manawatu at Opiki Bridge</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.908428808501064</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.502061855670103</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.256011691984569</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.59964493486139</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.60855982505467</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1809485</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5520992</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
+++ b/trend_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.917576803603336</v>
+        <v>0.987719496730872</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.961538461538462</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.5</v>
+        <v>40.25</v>
       </c>
       <c r="K2" t="n">
-        <v>-13.6262511373976</v>
+        <v>-12.9087611607143</v>
       </c>
       <c r="L2" t="n">
-        <v>-37.0043106916563</v>
+        <v>-32.947373151394</v>
       </c>
       <c r="M2" t="n">
-        <v>1.30389907895395</v>
+        <v>-2.1806966797453</v>
       </c>
       <c r="N2" t="n">
-        <v>-25.9547640712336</v>
+        <v>-32.0714562999113</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.697021403044895</v>
+        <v>0.222169940082095</v>
       </c>
       <c r="G3" t="n">
         <v>0.0416666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0.916666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>0.231</v>
       </c>
       <c r="K3" t="n">
-        <v>0.012228556962996</v>
+        <v>-0.0162741172061518</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0456066476703516</v>
+        <v>-0.143918113316353</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0829405703732838</v>
+        <v>0.015240189909656</v>
       </c>
       <c r="N3" t="n">
-        <v>3.057139240749</v>
+        <v>-7.0450723836155</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9057349278619941</v>
+        <v>0.253508774251516</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.929824561403509</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.54</v>
+        <v>10.445</v>
       </c>
       <c r="K4" t="n">
-        <v>0.149081632653062</v>
+        <v>-0.0781178955304672</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0360132900563668</v>
+        <v>-0.209317627973501</v>
       </c>
       <c r="M4" t="n">
-        <v>0.32688640875321</v>
+        <v>0.0836195054945055</v>
       </c>
       <c r="N4" t="n">
-        <v>1.41443674243892</v>
+        <v>-0.747897515849374</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.219912939082854</v>
+        <v>0.0080687025500507</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.456140350877193</v>
+        <v>0.46551724137931</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.021</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006193356780582</v>
+        <v>0.0019009293680297</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0007520490210534999</v>
+        <v>0.0006223430473297</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0019995756493122</v>
+        <v>0.0030693277310924</v>
       </c>
       <c r="N5" t="n">
-        <v>2.94921751456288</v>
+        <v>9.05204460966543</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.624256620508946</v>
+        <v>0.288820484474465</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.947368421052632</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.4486482682403</v>
+        <v>13.2097649186257</v>
       </c>
       <c r="L6" t="n">
-        <v>-57.8124692413859</v>
+        <v>-30.4423009686472</v>
       </c>
       <c r="M6" t="n">
-        <v>38.3978909303638</v>
+        <v>78.86614150775389</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.01737438151439</v>
+        <v>4.6350052346055</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.493515419226152</v>
+        <v>0.712247084093797</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0196078431372549</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0526062043074515</v>
+        <v>0.0628240606714103</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000374409718234</v>
+        <v>-0.0024845451124045</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0061649632450596</v>
+        <v>-0.0112527370070202</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0070466980892344</v>
+        <v>0.0046783951012335</v>
       </c>
       <c r="N7" t="n">
-        <v>0.711721598551149</v>
+        <v>-3.95476682954235</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.530214792087602</v>
+        <v>0.699414775914169</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.631578947368421</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>0.015</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0001241502379333</v>
+        <v>-0.0004168972474893</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0029180494349349</v>
+        <v>-0.0025085851648351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0009648974061327</v>
+        <v>0.0006658869455989</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.827668252889192</v>
+        <v>-2.77931498326235</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.029752342820215</v>
+        <v>0.0162620906326638</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.982456140350877</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0385760670133438</v>
+        <v>0.0301261050350191</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0033809255438283</v>
+        <v>0.0028016680905834</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0570114881601398</v>
+        <v>0.0492920801759647</v>
       </c>
       <c r="N9" t="n">
-        <v>9.20669857120377</v>
+        <v>7.02240210606506</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.876339217315251</v>
+        <v>0.103571419640687</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.807017543859649</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.74</v>
+        <v>7.705</v>
       </c>
       <c r="K10" t="n">
-        <v>0.043482142857143</v>
+        <v>-0.0301030219780222</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0141298424962097</v>
+        <v>-0.0626142857142858</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0896707325320974</v>
+        <v>0.0129061654838315</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5617847914359561</v>
+        <v>-0.390694639559017</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.272674834005562</v>
+        <v>0.105056163764983</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.947368421052632</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0152971570166161</v>
+        <v>0.0200369464767039</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0305074437444726</v>
+        <v>-0.0038925758516329</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0620571534564333</v>
+        <v>0.055300641898098</v>
       </c>
       <c r="N11" t="n">
-        <v>2.63744086493381</v>
+        <v>3.39609262317015</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.844661174372766</v>
+        <v>0.0157925230758146</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.666666666666667</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>0.825</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.88852986969009</v>
+        <v>0.0428235433691351</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.41640274727182</v>
+        <v>0.0064864195940498</v>
       </c>
       <c r="M12" t="n">
-        <v>0.711302670056927</v>
+        <v>0.0656369221143821</v>
       </c>
       <c r="N12" t="n">
-        <v>-12.5901991312673</v>
+        <v>5.19073252959213</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.530214792087602</v>
+        <v>0.0664172990925431</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.719298245614035</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.0615</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0024612533692722</v>
+        <v>0.0045476736566186</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0427405791889901</v>
+        <v>-0.0005035810137575</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0191908027876174</v>
+        <v>0.009229297655820701</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.303858440650894</v>
+        <v>7.39459131157498</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.832489839580674</v>
+        <v>0.407187886889412</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.789473684210526</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.058</v>
+        <v>7.82</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0028491976336857</v>
+        <v>0.111121031746032</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0085434468909092</v>
+        <v>-0.998237707741392</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00216444142542</v>
+        <v>1.54252336704081</v>
       </c>
       <c r="N14" t="n">
-        <v>-4.91240971325137</v>
+        <v>1.42098506069094</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.958609315506658</v>
+        <v>0.247543817027394</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.982456140350877</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.76</v>
+        <v>13</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.31727043351124</v>
+        <v>0.120412087912088</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.05077033612684</v>
+        <v>-0.578752884664215</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0613826680790168</v>
+        <v>1.8774267746963</v>
       </c>
       <c r="N15" t="n">
-        <v>-15.0373337158818</v>
+        <v>0.926246830092984</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.07708349925074939</v>
+        <v>0.004325770766974</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>0.753623188405797</v>
+        <v>0.739583333333333</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>23</v>
+        <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.762080181938108</v>
+        <v>-0.0489324240096139</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0279070412767136</v>
+        <v>-0.101539630817953</v>
       </c>
       <c r="M16" t="n">
-        <v>3.86358480478705</v>
+        <v>-0.0110992836968986</v>
       </c>
       <c r="N16" t="n">
-        <v>3.31339209538308</v>
+        <v>-8.155404001602321</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.042924648790114</v>
+        <v>0.9137173144131679</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0909090909090909</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.761363636363636</v>
+        <v>0.88034188034188</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.675</v>
+        <v>10.25</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0344729146374319</v>
+        <v>0.0385978473581213</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.101372448283247</v>
+        <v>-0.0074951725152433</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.0692941596277044</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.10709846480472</v>
+        <v>0.376564364469476</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3.0484922863994e-06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0341880341880342</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.299145299145299</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.996823569961262</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.88034188034188</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.25</v>
+        <v>0.02</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0798906356801094</v>
+        <v>0.0013843972675554</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0385073820820238</v>
+        <v>0.0009396966759627</v>
       </c>
       <c r="M18" t="n">
-        <v>0.121079083951807</v>
+        <v>0.0018364182863224</v>
       </c>
       <c r="N18" t="n">
-        <v>0.779420835903507</v>
+        <v>6.92198633777726</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.63613377261557e-05</v>
+        <v>0.124168693386089</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0427350427350427</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.264957264957265</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.018</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0012643879476924</v>
+        <v>9.2492195946969</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007867282671589</v>
+        <v>-3.65626666453746</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0017201726844584</v>
+        <v>25.4552125437396</v>
       </c>
       <c r="N19" t="n">
-        <v>7.02437748718026</v>
+        <v>3.69968783787876</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0545716033311548</v>
+        <v>2.0669190942449e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.144144144144144</v>
       </c>
       <c r="H20" t="n">
-        <v>0.760683760683761</v>
+        <v>0.855855855855856</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>210</v>
+        <v>0.0383150170712669</v>
       </c>
       <c r="K20" t="n">
-        <v>11.4908283364395</v>
+        <v>0.0053632395189495</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0034759396849606</v>
       </c>
       <c r="M20" t="n">
-        <v>24.264522844126</v>
+        <v>0.0073180039973159</v>
       </c>
       <c r="N20" t="n">
-        <v>5.47182301735215</v>
+        <v>13.9977479560398</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.844698576503151e-05</v>
+        <v>0.741056241398693</v>
       </c>
       <c r="G21" t="n">
-        <v>0.145454545454545</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8545454545454541</v>
+        <v>0.47008547008547</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0370836123558674</v>
+        <v>0.018</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0039018078681553</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0021449645861874</v>
+        <v>-0.0007455007522111</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0061615195118883</v>
+        <v>0.0003334183511695</v>
       </c>
       <c r="N21" t="n">
-        <v>10.5216499156346</v>
+        <v>-1.11065498996534</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.758506998231257</v>
+        <v>0.0908025511313159</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.478632478632479</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.019</v>
+        <v>0.426</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001999178981937</v>
+        <v>0.0071617647058823</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0007448089928909</v>
+        <v>-0.0019428834094538</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0002487436473929</v>
+        <v>0.0184866270653506</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.05219946417769</v>
+        <v>1.68116542391605</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.06731005770987319</v>
+        <v>0.966963244278531</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.957264957264957</v>
+        <v>0.547008547008547</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.408</v>
+        <v>7.63</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0080274725274725</v>
+        <v>0.0136886765077393</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.001136890101253</v>
+        <v>0.0011747856425293</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0174001979372529</v>
+        <v>0.0284626528539786</v>
       </c>
       <c r="N23" t="n">
-        <v>1.96751777634131</v>
+        <v>0.179405983063424</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.998762751070668</v>
+        <v>0.0325840967906341</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.551724137931034</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.65</v>
+        <v>0.58</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0236348929815829</v>
+        <v>0.0123756868131868</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0106796682155217</v>
+        <v>0.0011659205981899</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0376951278154466</v>
+        <v>0.0243670718399875</v>
       </c>
       <c r="N24" t="n">
-        <v>0.308952849432456</v>
+        <v>2.13373910572187</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.114550942032529</v>
+        <v>0.07411738364506799</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.897435897435897</v>
+        <v>0.658119658119658</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.552</v>
+        <v>0.84</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0083086897179253</v>
+        <v>0.0074897470950102</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.001994085532302</v>
+        <v>-0.0013047581329971</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0229319836214741</v>
+        <v>0.0168874193520449</v>
       </c>
       <c r="N25" t="n">
-        <v>1.50519741266764</v>
+        <v>0.891636558929793</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.128909936211662</v>
+        <v>0.0274061045154098</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008547008547008499</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.512820512820513</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>14</v>
+        <v>0.055</v>
       </c>
       <c r="K26" t="n">
-        <v>0.250256937307297</v>
+        <v>0.0016302165507267</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0025949737110668</v>
+        <v>0.000247036986517</v>
       </c>
       <c r="M26" t="n">
-        <v>0.994001002948153</v>
+        <v>0.003118706161004</v>
       </c>
       <c r="N26" t="n">
-        <v>1.78754955219498</v>
+        <v>2.96403009223039</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.148286404740973</v>
+        <v>0.109542862678587</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.700854700854701</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8100000000000001</v>
+        <v>7.77</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0066895604395604</v>
+        <v>0.166704701049749</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0066651702092171</v>
+        <v>-0.144237439497894</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0166028076853332</v>
+        <v>0.6386564276339221</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8258716592049929</v>
+        <v>2.14549164800192</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.008119336224884499</v>
+        <v>0.008901118435793399</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5726495726495729</v>
+        <v>0.743119266055046</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.052</v>
+        <v>9.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0018522593374492</v>
+        <v>0.352250808860129</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0005845590594051</v>
+        <v>0.0373085977441889</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0032868391451068</v>
+        <v>1.49250700560854</v>
       </c>
       <c r="N28" t="n">
-        <v>3.56203718740234</v>
+        <v>3.70790325115926</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.33452020953512</v>
+        <v>4.3656691269045e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9401709401709401</v>
+        <v>0.664</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>6.78</v>
+        <v>0.63</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0498521383075523</v>
+        <v>-0.0420973612374886</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.181774400224246</v>
+        <v>-0.0699134420710249</v>
       </c>
       <c r="M29" t="n">
-        <v>0.280954282134608</v>
+        <v>-0.0198944871582027</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7352822759226</v>
+        <v>-6.6821208313474</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0016117432759512</v>
+        <v>0.838459808707461</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.752380952380952</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>10.225</v>
       </c>
       <c r="K30" t="n">
-        <v>1.11265510995568</v>
+        <v>0.0190449618230011</v>
       </c>
       <c r="L30" t="n">
-        <v>0.123122331562415</v>
+        <v>-0.0111827456681865</v>
       </c>
       <c r="M30" t="n">
-        <v>2.97331259354719</v>
+        <v>0.0406339728732698</v>
       </c>
       <c r="N30" t="n">
-        <v>9.272125916297311</v>
+        <v>0.186258795334974</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0101944062193652</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0454545454545455</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.227272727272727</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0023529505732909</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.06956521739130429</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.68695652173913</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.78</v>
+        <v>0.019</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0354495637949836</v>
+        <v>0.0004249316517199</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.069672302522872</v>
+        <v>9.43182441704162e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0099382012733772</v>
+        <v>0.0007476024045851</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.54481587115175</v>
+        <v>2.23648237747361</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.962653146085792</v>
+        <v>0.10235780696001</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.841463414634146</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.25</v>
+        <v>232.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0329864532019704</v>
+        <v>4.52823589626934</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0021493263756053</v>
+        <v>-1.62449685787848</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0598946326799031</v>
+        <v>11.6122450767161</v>
       </c>
       <c r="N32" t="n">
-        <v>0.32181905562898</v>
+        <v>1.94762834248143</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.09280390471552701</v>
+        <v>0.0437405539158239</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0487804878048781</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="H33" t="n">
-        <v>0.225609756097561</v>
+        <v>0.887573964497041</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.019</v>
+        <v>0.0415452403407165</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0002499575869038</v>
+        <v>0.0010316695311535</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0006174125840103</v>
+        <v>0.0021427160537451</v>
       </c>
       <c r="N33" t="n">
-        <v>1.31556624686221</v>
+        <v>2.48324362235651</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.230977336536679</v>
+        <v>0.102914058727371</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0359281437125748</v>
       </c>
       <c r="H34" t="n">
-        <v>0.774390243902439</v>
+        <v>0.383233532934132</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>221</v>
+        <v>0.015</v>
       </c>
       <c r="K34" t="n">
-        <v>3.33409402099498</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.72262791361527</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>10.1812034362692</v>
+        <v>0.0005169441493417</v>
       </c>
       <c r="N34" t="n">
-        <v>1.50863982850452</v>
+        <v>1.3327859879584</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3553,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.134691058742147</v>
+        <v>0.104341930967552</v>
       </c>
       <c r="G35" t="n">
-        <v>0.114649681528662</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.878980891719745</v>
+        <v>0.922155688622755</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0404686490246746</v>
+        <v>0.43</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0006232506045553</v>
+        <v>0.0037971731992322</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.000238384574332</v>
+        <v>-0.0010020676840416</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0018997635884982</v>
+        <v>0.008997459494959901</v>
       </c>
       <c r="N35" t="n">
-        <v>1.54008255668577</v>
+        <v>0.883063534705183</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3644,14 +3644,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3659,31 +3659,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0560170114277408</v>
+        <v>0.999559406243392</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0387096774193548</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.406451612903226</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.015</v>
+        <v>7.62</v>
       </c>
       <c r="K36" t="n">
-        <v>0.000332347588717</v>
+        <v>0.0180491913746631</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.008996305418719</v>
       </c>
       <c r="M36" t="n">
-        <v>0.000664695177434</v>
+        <v>0.0269029562729213</v>
       </c>
       <c r="N36" t="n">
-        <v>2.21565059144677</v>
+        <v>0.236866028538886</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.197219715278638</v>
+        <v>0.329097711139525</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9290322580645159</v>
+        <v>0.880681818181818</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.426</v>
+        <v>0.574</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0028506503879507</v>
+        <v>0.0014364001944725</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0031904003173722</v>
+        <v>-0.0041946604227238</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0089999862680847</v>
+        <v>0.0063518713508884</v>
       </c>
       <c r="N37" t="n">
-        <v>0.669166757734907</v>
+        <v>0.250243936319252</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999993594897591</v>
+        <v>0.494112581759334</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.54601226993865</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.63</v>
+        <v>0.84</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0264924314096499</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0171077283372366</v>
+        <v>-0.0076977202439578</v>
       </c>
       <c r="M38" t="n">
-        <v>0.036045885948896</v>
+        <v>0.0069768764050875</v>
       </c>
       <c r="N38" t="n">
-        <v>0.347214042066185</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.577771133234058</v>
+        <v>0.0031624192077375</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.865853658536585</v>
+        <v>0.556818181818182</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5605</v>
+        <v>0.054</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0003640014561452</v>
+        <v>0.001331513981633</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0067712045640935</v>
+        <v>0.0004984547844203</v>
       </c>
       <c r="M39" t="n">
-        <v>0.005064180660308</v>
+        <v>0.0020949658519527</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.06494227585106919</v>
+        <v>2.46576663265375</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.783831522985542</v>
+        <v>0.226072131970191</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.664634146341463</v>
+        <v>0.960227272727273</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8235</v>
+        <v>7.47</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.004676903960719</v>
+        <v>0.0598551629607067</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0132941546570229</v>
+        <v>-0.0889386159961444</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0049997849745574</v>
+        <v>0.256215545496101</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.567930049874804</v>
+        <v>0.801273935216957</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.06609755382228211</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.554878048780488</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0525</v>
+        <v>0.27</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0008456267232701</v>
+        <v>0.0161385645604396</v>
       </c>
       <c r="L41" t="n">
-        <v>-2.57732114581786e-05</v>
+        <v>-0.09288781204650071</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001608128488934</v>
+        <v>0.0552483679998847</v>
       </c>
       <c r="N41" t="n">
-        <v>1.61071756813365</v>
+        <v>5.97724613349613</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.571334658062042</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.957317073170732</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.01</v>
+        <v>91</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0244877111465444</v>
+        <v>1.71850463821892</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.177610762244387</v>
+        <v>-10.6783630746683</v>
       </c>
       <c r="M42" t="n">
-        <v>0.14440953459584</v>
+        <v>8.754157060689201</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.349325408652559</v>
+        <v>1.88846663540541</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,11 +4259,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.59675202974633</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.23</v>
+        <v>3.66</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0110498991986125</v>
+        <v>0.44581500550815</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.09288781204650071</v>
+        <v>-0.636816865012663</v>
       </c>
       <c r="M43" t="n">
-        <v>0.065207953020835</v>
+        <v>1.0536873951739</v>
       </c>
       <c r="N43" t="n">
-        <v>4.80430399939674</v>
+        <v>12.1807378554139</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.59675202974633</v>
+        <v>0.5</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>0.2775</v>
       </c>
       <c r="K44" t="n">
-        <v>1.46456544166187</v>
+        <v>-0.0007239841427155</v>
       </c>
       <c r="L44" t="n">
-        <v>-10.6783630746683</v>
+        <v>-0.02462025453448</v>
       </c>
       <c r="M44" t="n">
-        <v>11.0549331331356</v>
+        <v>0.0163643200794526</v>
       </c>
       <c r="N44" t="n">
-        <v>1.83070680207733</v>
+        <v>-0.260895186564166</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.768783636774762</v>
+        <v>0.464222020750296</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.94</v>
+        <v>91.05500000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>0.293157966627807</v>
+        <v>-0.249317406143345</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.636816865012663</v>
+        <v>-2.64698096962303</v>
       </c>
       <c r="M45" t="n">
-        <v>0.867063121938542</v>
+        <v>2.02239826942795</v>
       </c>
       <c r="N45" t="n">
-        <v>9.9713594091091</v>
+        <v>-0.27380968221772</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.265</v>
+        <v>3.73</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0007239841427155</v>
+        <v>0.0133791208791209</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0222828369479634</v>
+        <v>-0.250781318815791</v>
       </c>
       <c r="M46" t="n">
-        <v>0.021036278075091</v>
+        <v>0.260188772324857</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.273201563288891</v>
+        <v>0.35868956780485</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4625,11 +4617,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4640,31 +4632,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.464222020750296</v>
+        <v>0.5</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>88</v>
+        <v>0.2775</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.249317406143345</v>
+        <v>-0.0007239841427155</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.72716200506676</v>
+        <v>-0.0132769926226437</v>
       </c>
       <c r="M47" t="n">
-        <v>2.0564292551818</v>
+        <v>0.0058334313543396</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.283315234253801</v>
+        <v>-0.260895186564166</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4712,11 +4704,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,31 +4719,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.360257393568128</v>
+        <v>0.185939696383049</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.68</v>
+        <v>91.11</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0281598639455782</v>
+        <v>-0.834035433070866</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.279121931714318</v>
+        <v>-2.10076464106189</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0703031964122685</v>
+        <v>0.507206907469688</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.765213694173321</v>
+        <v>-0.91541590722299</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4799,7 +4791,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4814,31 +4806,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.345249057632304</v>
+        <v>0.162211845260789</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>91</v>
+        <v>3.815</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.30319590481461</v>
+        <v>-0.0810131533700138</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.02513981844129</v>
+        <v>-0.238661391285474</v>
       </c>
       <c r="M49" t="n">
-        <v>0.653758766383187</v>
+        <v>0.0455561243626306</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.333182312983088</v>
+        <v>-2.12354268335554</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4839,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4901,31 +4893,31 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.908428808501064</v>
+        <v>0.914530659824844</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.777777777777778</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="K50" t="n">
-        <v>0.502061855670103</v>
+        <v>0.504953917050691</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.256011691984569</v>
+        <v>-0.245218237717009</v>
       </c>
       <c r="M50" t="n">
-        <v>1.59964493486139</v>
+        <v>1.39091843164861</v>
       </c>
       <c r="N50" t="n">
-        <v>0.60855982505467</v>
+        <v>0.594063431824343</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>

--- a/trend_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
+++ b/trend_results/Rivers/ManawatuatOpikiBridge_6c566d0b94.xlsx
@@ -139,9 +139,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
@@ -151,37 +148,40 @@
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
     <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
@@ -666,37 +666,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.987719496730872</v>
+        <v>0.979053778816292</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>40.25</v>
+        <v>13.25</v>
       </c>
       <c r="K2">
-        <v>-12.9087611607143</v>
+        <v>-9.578165071338271</v>
       </c>
       <c r="L2">
-        <v>-32.947373151394</v>
+        <v>-21.3716718496989</v>
       </c>
       <c r="M2">
-        <v>-2.1806966797453</v>
+        <v>-1.07880237753716</v>
       </c>
       <c r="N2">
-        <v>-32.0714562999113</v>
+        <v>-72.28803827425109</v>
       </c>
       <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
       </c>
       <c r="Q2">
         <v>1809485</v>
@@ -737,37 +737,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.222169940082095</v>
+        <v>0.023375179623741</v>
       </c>
       <c r="G3">
-        <v>0.0416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.875</v>
+        <v>0.902439024390244</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.231</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>-0.0162741172061518</v>
+        <v>-0.106650706436421</v>
       </c>
       <c r="L3">
-        <v>-0.143918113316353</v>
+        <v>-0.352858018600588</v>
       </c>
       <c r="M3">
-        <v>0.015240189909656</v>
+        <v>-0.0111690306466342</v>
       </c>
       <c r="N3">
-        <v>-7.0450723836155</v>
+        <v>-53.3253532182104</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3">
         <v>1809485</v>
@@ -808,13 +808,13 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.253508774251516</v>
+        <v>0.0083852280631909</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.948275862068966</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>10.445</v>
       </c>
       <c r="K4">
-        <v>-0.0781178955304672</v>
+        <v>-0.144679922658863</v>
       </c>
       <c r="L4">
-        <v>-0.209317627973501</v>
+        <v>-0.240534536706083</v>
       </c>
       <c r="M4">
-        <v>0.0836195054945055</v>
+        <v>-0.0535846851594712</v>
       </c>
       <c r="N4">
-        <v>-0.747897515849374</v>
+        <v>-1.38515962334957</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>1809485</v>
@@ -879,37 +879,37 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0080687025500507</v>
+        <v>0.138113272349785</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.46551724137931</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.021</v>
+        <v>0.0205</v>
       </c>
       <c r="K5">
-        <v>0.0019009293680297</v>
+        <v>0.0006957142857142</v>
       </c>
       <c r="L5">
-        <v>0.0006223430473297</v>
+        <v>-0.0002920407491542</v>
       </c>
       <c r="M5">
-        <v>0.0030693277310924</v>
+        <v>0.0019122002219589</v>
       </c>
       <c r="N5">
-        <v>9.05204460966543</v>
+        <v>3.39372822299652</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1809485</v>
@@ -950,7 +950,7 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.288820484474465</v>
+        <v>0.777798489478801</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -962,25 +962,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>285</v>
+        <v>214.2</v>
       </c>
       <c r="K6">
-        <v>13.2097649186257</v>
+        <v>-17.6071767095464</v>
       </c>
       <c r="L6">
-        <v>-30.4423009686472</v>
+        <v>-61.8172007615576</v>
       </c>
       <c r="M6">
-        <v>78.86614150775389</v>
+        <v>18.610108744329</v>
       </c>
       <c r="N6">
-        <v>4.6350052346055</v>
+        <v>-8.21997045263603</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1809485</v>
@@ -1021,7 +1021,7 @@
         <v>40</v>
       </c>
       <c r="F7">
-        <v>0.712247084093797</v>
+        <v>0.168966012916128</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1033,25 +1033,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0628240606714103</v>
+        <v>0.0526062043074515</v>
       </c>
       <c r="K7">
-        <v>-0.0024845451124045</v>
+        <v>0.003939413671614</v>
       </c>
       <c r="L7">
-        <v>-0.0112527370070202</v>
+        <v>-0.0028456063694597</v>
       </c>
       <c r="M7">
-        <v>0.0046783951012335</v>
+        <v>0.0111691204159458</v>
       </c>
       <c r="N7">
-        <v>-3.95476682954235</v>
+        <v>7.4884963161199</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1809485</v>
@@ -1092,13 +1092,13 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.699414775914169</v>
+        <v>0.326910243161775</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.655172413793103</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0.015</v>
       </c>
       <c r="K8">
-        <v>-0.0004168972474893</v>
+        <v>0.0006271462912087</v>
       </c>
       <c r="L8">
-        <v>-0.0025085851648351</v>
+        <v>-0.0009986488897661</v>
       </c>
       <c r="M8">
-        <v>0.0006658869455989</v>
+        <v>0.0020013881219005</v>
       </c>
       <c r="N8">
-        <v>-2.77931498326235</v>
+        <v>4.18097527472527</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1809485</v>
@@ -1163,37 +1163,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0162620906326638</v>
+        <v>0.643788875060667</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.429</v>
+        <v>0.3815</v>
       </c>
       <c r="K9">
-        <v>0.0301261050350191</v>
+        <v>-0.0141066491112574</v>
       </c>
       <c r="L9">
-        <v>0.0028016680905834</v>
+        <v>-0.0376797168321395</v>
       </c>
       <c r="M9">
-        <v>0.0492920801759647</v>
+        <v>0.0138697759782906</v>
       </c>
       <c r="N9">
-        <v>7.02240210606506</v>
+        <v>-3.69767997673851</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>1809485</v>
@@ -1234,37 +1234,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.103571419640687</v>
+        <v>0.128347636094492</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.810344827586207</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.705</v>
+        <v>7.69</v>
       </c>
       <c r="K10">
-        <v>-0.0301030219780222</v>
+        <v>-0.0280242966751918</v>
       </c>
       <c r="L10">
-        <v>-0.0626142857142858</v>
+        <v>-0.07210823454184601</v>
       </c>
       <c r="M10">
-        <v>0.0129061654838315</v>
+        <v>0.0122853269744108</v>
       </c>
       <c r="N10">
-        <v>-0.390694639559017</v>
+        <v>-0.364425184332793</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1809485</v>
@@ -1302,37 +1302,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.105056163764983</v>
+        <v>0.302910845276168</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9655172413793101</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.59</v>
+        <v>0.5555</v>
       </c>
       <c r="K11">
-        <v>0.0200369464767039</v>
+        <v>0.01016874000999</v>
       </c>
       <c r="L11">
-        <v>-0.0038925758516329</v>
+        <v>-0.0233990452377005</v>
       </c>
       <c r="M11">
-        <v>0.055300641898098</v>
+        <v>0.0347225418843354</v>
       </c>
       <c r="N11">
-        <v>3.39609262317015</v>
+        <v>1.83055625742394</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1809485</v>
@@ -1373,37 +1373,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0157925230758146</v>
+        <v>0.207429060073121</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.706896551724138</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.825</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K12">
-        <v>0.0428235433691351</v>
+        <v>0.0083357472021066</v>
       </c>
       <c r="L12">
-        <v>0.0064864195940498</v>
+        <v>-0.0177045631753682</v>
       </c>
       <c r="M12">
-        <v>0.0656369221143821</v>
+        <v>0.0506490584836278</v>
       </c>
       <c r="N12">
-        <v>5.19073252959213</v>
+        <v>1.02279106774315</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <v>1809485</v>
@@ -1444,37 +1444,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0664172990925431</v>
+        <v>0.626294785271701</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.810344827586207</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0615</v>
+        <v>0.0555</v>
       </c>
       <c r="K13">
-        <v>0.0045476736566186</v>
+        <v>-0.000927619047619</v>
       </c>
       <c r="L13">
-        <v>-0.0005035810137575</v>
+        <v>-0.0051749863383404</v>
       </c>
       <c r="M13">
-        <v>0.009229297655820701</v>
+        <v>0.0040496789621543</v>
       </c>
       <c r="N13">
-        <v>7.39459131157498</v>
+        <v>-1.67138567138567</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1809485</v>
@@ -1515,7 +1515,7 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.407187886889412</v>
+        <v>0.799129827834154</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.82</v>
+        <v>5.985</v>
       </c>
       <c r="K14">
-        <v>0.111121031746032</v>
+        <v>-0.326741214057508</v>
       </c>
       <c r="L14">
-        <v>-0.998237707741392</v>
+        <v>-1.70698691838171</v>
       </c>
       <c r="M14">
-        <v>1.54252336704081</v>
+        <v>0.369916156885017</v>
       </c>
       <c r="N14">
-        <v>1.42098506069094</v>
+        <v>-5.4593352390561</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>1809485</v>
@@ -1586,37 +1586,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.247543817027394</v>
+        <v>0.464415459773928</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.80952380952381</v>
+        <v>0.8</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="K15">
-        <v>0.120412087912088</v>
+        <v>0.0107421840563271</v>
       </c>
       <c r="L15">
-        <v>-0.578752884664215</v>
+        <v>-1.08047322368687</v>
       </c>
       <c r="M15">
-        <v>1.8774267746963</v>
+        <v>1.01402532896904</v>
       </c>
       <c r="N15">
-        <v>0.926246830092984</v>
+        <v>0.08593747245061679</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1809485</v>
@@ -1657,37 +1657,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.004325770766974</v>
+        <v>0.00013074383347</v>
       </c>
       <c r="G16">
-        <v>0.0833333333333333</v>
+        <v>0.0736842105263158</v>
       </c>
       <c r="H16">
-        <v>0.739583333333333</v>
+        <v>0.747368421052632</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="K16">
-        <v>-0.0489324240096139</v>
+        <v>-0.0695714285714286</v>
       </c>
       <c r="L16">
-        <v>-0.101539630817953</v>
+        <v>-0.110308460091143</v>
       </c>
       <c r="M16">
-        <v>-0.0110992836968986</v>
+        <v>-0.030103021978022</v>
       </c>
       <c r="N16">
-        <v>-8.155404001602321</v>
+        <v>-15.4603174603175</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>1809485</v>
@@ -1728,37 +1728,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.9137173144131679</v>
+        <v>0.5327559619544689</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.88034188034188</v>
+        <v>0.843478260869565</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.25</v>
+        <v>10.27</v>
       </c>
       <c r="K17">
-        <v>0.0385978473581213</v>
+        <v>0.0024965823650033</v>
       </c>
       <c r="L17">
-        <v>-0.0074951725152433</v>
+        <v>-0.0299358876161392</v>
       </c>
       <c r="M17">
-        <v>0.0692941596277044</v>
+        <v>0.0391098402122753</v>
       </c>
       <c r="N17">
-        <v>0.376564364469476</v>
+        <v>0.0243094680136647</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q17">
         <v>1809485</v>
@@ -1799,10 +1799,10 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>3.0484922863994E-06</v>
+        <v>0.0006275566239839</v>
       </c>
       <c r="G18">
-        <v>0.0341880341880342</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H18">
         <v>0.299145299145299</v>
@@ -1814,22 +1814,22 @@
         <v>0.02</v>
       </c>
       <c r="K18">
-        <v>0.0013843972675554</v>
+        <v>0.0009662698412698</v>
       </c>
       <c r="L18">
-        <v>0.0009396966759627</v>
+        <v>0.0004809137546834</v>
       </c>
       <c r="M18">
-        <v>0.0018364182863224</v>
+        <v>0.0014361074705111</v>
       </c>
       <c r="N18">
-        <v>6.92198633777726</v>
+        <v>4.83134920634921</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1809485</v>
@@ -1870,37 +1870,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.124168693386089</v>
+        <v>0.41512385728552</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.794871794871795</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K19">
-        <v>9.2492195946969</v>
+        <v>1.2546223494815</v>
       </c>
       <c r="L19">
-        <v>-3.65626666453746</v>
+        <v>-10.0352050013163</v>
       </c>
       <c r="M19">
-        <v>25.4552125437396</v>
+        <v>13.8567073490384</v>
       </c>
       <c r="N19">
-        <v>3.69968783787876</v>
+        <v>0.5974392140388119</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1809485</v>
@@ -1935,43 +1935,43 @@
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>2.0669190942449E-07</v>
+        <v>2.39701235603629E-05</v>
       </c>
       <c r="G20">
-        <v>0.144144144144144</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="H20">
-        <v>0.855855855855856</v>
+        <v>0.900900900900901</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>0.0383150170712669</v>
+        <v>0.044200020103211</v>
       </c>
       <c r="K20">
-        <v>0.0053632395189495</v>
+        <v>0.0045989688173583</v>
       </c>
       <c r="L20">
-        <v>0.0034759396849606</v>
+        <v>0.002392506571823</v>
       </c>
       <c r="M20">
-        <v>0.0073180039973159</v>
+        <v>0.0071623200708108</v>
       </c>
       <c r="N20">
-        <v>13.9977479560398</v>
+        <v>10.4049020942057</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1809485</v>
@@ -2012,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.741056241398693</v>
+        <v>0.766276763179803</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2030,19 +2030,19 @@
         <v>-0.0001999178981937</v>
       </c>
       <c r="L21">
-        <v>-0.0007455007522111</v>
+        <v>-0.0007456192275792001</v>
       </c>
       <c r="M21">
-        <v>0.0003334183511695</v>
+        <v>0.0003304314407304</v>
       </c>
       <c r="N21">
         <v>-1.11065498996534</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q21">
         <v>1809485</v>
@@ -2083,37 +2083,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0908025511313159</v>
+        <v>0.694201918479344</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.948717948717949</v>
+        <v>0.931623931623932</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.426</v>
+        <v>0.419</v>
       </c>
       <c r="K22">
-        <v>0.0071617647058823</v>
+        <v>-0.0039881710646041</v>
       </c>
       <c r="L22">
-        <v>-0.0019428834094538</v>
+        <v>-0.0138206453747776</v>
       </c>
       <c r="M22">
-        <v>0.0184866270653506</v>
+        <v>0.0047629626225039</v>
       </c>
       <c r="N22">
-        <v>1.68116542391605</v>
+        <v>-0.95183080300816</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1809485</v>
@@ -2154,37 +2154,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.966963244278531</v>
+        <v>0.8586999866673271</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.547008547008547</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.63</v>
+        <v>7.65</v>
       </c>
       <c r="K23">
-        <v>0.0136886765077393</v>
+        <v>0.0072596492865439</v>
       </c>
       <c r="L23">
-        <v>0.0011747856425293</v>
+        <v>-0.0041751379922592</v>
       </c>
       <c r="M23">
-        <v>0.0284626528539786</v>
+        <v>0.0202815243432043</v>
       </c>
       <c r="N23">
-        <v>0.179405983063424</v>
+        <v>0.0948973762946916</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1809485</v>
@@ -2222,37 +2222,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0325840967906341</v>
+        <v>0.344249870548317</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.888888888888889</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.58</v>
+        <v>0.5787</v>
       </c>
       <c r="K24">
-        <v>0.0123756868131868</v>
+        <v>0.0017476076555023</v>
       </c>
       <c r="L24">
-        <v>0.0011659205981899</v>
+        <v>-0.0088695660792538</v>
       </c>
       <c r="M24">
-        <v>0.0243670718399875</v>
+        <v>0.0124111876002242</v>
       </c>
       <c r="N24">
-        <v>2.13373910572187</v>
+        <v>0.301988535597441</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1809485</v>
@@ -2293,37 +2293,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.07411738364506799</v>
+        <v>0.404757324706265</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.658119658119658</v>
+        <v>0.581196581196581</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K25">
-        <v>0.0074897470950102</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="L25">
-        <v>-0.0013047581329971</v>
+        <v>-0.0103135822116441</v>
       </c>
       <c r="M25">
-        <v>0.0168874193520449</v>
+        <v>0.0099453079435787</v>
       </c>
       <c r="N25">
-        <v>0.891636558929793</v>
+        <v>0.241791341188932</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1809485</v>
@@ -2364,37 +2364,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0274061045154098</v>
+        <v>0.197504514006351</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.615384615384615</v>
+        <v>0.623931623931624</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="K26">
-        <v>0.0016302165507267</v>
+        <v>0.0007071695655433</v>
       </c>
       <c r="L26">
-        <v>0.000247036986517</v>
+        <v>-0.0006325392291992</v>
       </c>
       <c r="M26">
-        <v>0.003118706161004</v>
+        <v>0.0022140131528432</v>
       </c>
       <c r="N26">
-        <v>2.96403009223039</v>
+        <v>1.30957326952473</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1809485</v>
@@ -2435,7 +2435,7 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.109542862678587</v>
+        <v>0.296556037090714</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7.77</v>
+        <v>7.53</v>
       </c>
       <c r="K27">
-        <v>0.166704701049749</v>
+        <v>0.06460204081632651</v>
       </c>
       <c r="L27">
-        <v>-0.144237439497894</v>
+        <v>-0.21149687535282</v>
       </c>
       <c r="M27">
-        <v>0.6386564276339221</v>
+        <v>0.416830662366754</v>
       </c>
       <c r="N27">
-        <v>2.14549164800192</v>
+        <v>0.857928828902078</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q27">
         <v>1809485</v>
@@ -2506,13 +2506,13 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.008901118435793399</v>
+        <v>0.0286770232613306</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.743119266055046</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>9.5</v>
       </c>
       <c r="K28">
-        <v>0.352250808860129</v>
+        <v>0.263903159340659</v>
       </c>
       <c r="L28">
-        <v>0.0373085977441889</v>
+        <v>0.008836050243503001</v>
       </c>
       <c r="M28">
-        <v>1.49250700560854</v>
+        <v>1.24576306955778</v>
       </c>
       <c r="N28">
-        <v>3.70790325115926</v>
+        <v>2.77792799305957</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q28">
         <v>1809485</v>
@@ -2577,37 +2577,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>4.3656691269045E-05</v>
+        <v>2.05854653150261E-05</v>
       </c>
       <c r="G29">
-        <v>0.064</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H29">
-        <v>0.664</v>
+        <v>0.677966101694915</v>
       </c>
       <c r="I29">
         <v>4</v>
       </c>
       <c r="J29">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="K29">
-        <v>-0.0420973612374886</v>
+        <v>-0.0456789551306134</v>
       </c>
       <c r="L29">
-        <v>-0.0699134420710249</v>
+        <v>-0.0879355153552473</v>
       </c>
       <c r="M29">
-        <v>-0.0198944871582027</v>
+        <v>-0.0225326771754938</v>
       </c>
       <c r="N29">
-        <v>-6.6821208313474</v>
+        <v>-7.61315918843557</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q29">
         <v>1809485</v>
@@ -2648,37 +2648,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.838459808707461</v>
+        <v>0.922638394960709</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.8409090909090911</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.225</v>
+        <v>10.22</v>
       </c>
       <c r="K30">
-        <v>0.0190449618230011</v>
+        <v>0.0250858516483511</v>
       </c>
       <c r="L30">
-        <v>-0.0111827456681865</v>
+        <v>-0.004239322095436</v>
       </c>
       <c r="M30">
-        <v>0.0406339728732698</v>
+        <v>0.0444454577576777</v>
       </c>
       <c r="N30">
-        <v>0.186258795334974</v>
+        <v>0.245458431001479</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q30">
         <v>1809485</v>
@@ -2719,13 +2719,13 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0101944062193652</v>
+        <v>0.0037775708888907</v>
       </c>
       <c r="G31">
-        <v>0.0454545454545455</v>
+        <v>0.0397727272727273</v>
       </c>
       <c r="H31">
-        <v>0.227272727272727</v>
+        <v>0.215909090909091</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2734,22 +2734,22 @@
         <v>0.019</v>
       </c>
       <c r="K31">
-        <v>0.0004249316517199</v>
+        <v>0.0004608349501967</v>
       </c>
       <c r="L31">
-        <v>9.43182441704162E-05</v>
+        <v>0.0001580078331768</v>
       </c>
       <c r="M31">
-        <v>0.0007476024045851</v>
+        <v>0.0007481673640748</v>
       </c>
       <c r="N31">
-        <v>2.23648237747361</v>
+        <v>2.42544710629851</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q31">
         <v>1809485</v>
@@ -2790,37 +2790,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.10235780696001</v>
+        <v>0.208685842180059</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.772727272727273</v>
+        <v>0.7840909090909089</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>232.5</v>
+        <v>207.4</v>
       </c>
       <c r="K32">
-        <v>4.52823589626934</v>
+        <v>2.74208749662436</v>
       </c>
       <c r="L32">
-        <v>-1.62449685787848</v>
+        <v>-2.93909614484083</v>
       </c>
       <c r="M32">
-        <v>11.6122450767161</v>
+        <v>8.62182194554029</v>
       </c>
       <c r="N32">
-        <v>1.94762834248143</v>
+        <v>1.32212511891242</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q32">
         <v>1809485</v>
@@ -2861,37 +2861,37 @@
         <v>40</v>
       </c>
       <c r="F33">
-        <v>0.0437405539158239</v>
+        <v>0.0152695482409764</v>
       </c>
       <c r="G33">
-        <v>0.106508875739645</v>
+        <v>0.100591715976331</v>
       </c>
       <c r="H33">
-        <v>0.887573964497041</v>
+        <v>0.893491124260355</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33">
-        <v>0.0415452403407165</v>
+        <v>0.044771411268354</v>
       </c>
       <c r="K33">
-        <v>0.0010316695311535</v>
+        <v>0.0014424747420633</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.0002667758005871</v>
       </c>
       <c r="M33">
-        <v>0.0021427160537451</v>
+        <v>0.0025697773790896</v>
       </c>
       <c r="N33">
-        <v>2.48324362235651</v>
+        <v>3.22186569777166</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q33">
         <v>1809485</v>
@@ -2932,13 +2932,13 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>0.102914058727371</v>
+        <v>0.0513645078666151</v>
       </c>
       <c r="G34">
-        <v>0.0359281437125748</v>
+        <v>0.0284090909090909</v>
       </c>
       <c r="H34">
-        <v>0.383233532934132</v>
+        <v>0.380681818181818</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2947,22 +2947,22 @@
         <v>0.015</v>
       </c>
       <c r="K34">
-        <v>0.0001999178981937</v>
+        <v>0.0002495729707091</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.0005169441493417</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="N34">
-        <v>1.3327859879584</v>
+        <v>1.66381980472792</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q34">
         <v>1809485</v>
@@ -3003,37 +3003,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.104341930967552</v>
+        <v>0.7073208656477969</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.922155688622755</v>
+        <v>0.9034090909090911</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.43</v>
+        <v>0.4225</v>
       </c>
       <c r="K35">
-        <v>0.0037971731992322</v>
+        <v>-0.0013108271544152</v>
       </c>
       <c r="L35">
-        <v>-0.0010020676840416</v>
+        <v>-0.0059609978573513</v>
       </c>
       <c r="M35">
-        <v>0.008997459494959901</v>
+        <v>0.0024650858754454</v>
       </c>
       <c r="N35">
-        <v>0.883063534705183</v>
+        <v>-0.310254947790588</v>
       </c>
       <c r="O35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q35">
         <v>1809485</v>
@@ -3074,34 +3074,34 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.999559406243392</v>
+        <v>0.979922980593332</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.514285714285714</v>
+        <v>0.474285714285714</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.62</v>
+        <v>7.64</v>
       </c>
       <c r="K36">
-        <v>0.0180491913746631</v>
+        <v>0.009229311433986099</v>
       </c>
       <c r="L36">
-        <v>0.008996305418719</v>
+        <v>0.0018062628685572</v>
       </c>
       <c r="M36">
-        <v>0.0269029562729213</v>
+        <v>0.0172776726584674</v>
       </c>
       <c r="N36">
-        <v>0.236866028538886</v>
+        <v>0.120802505680446</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P36" t="s">
         <v>55</v>
@@ -3139,40 +3139,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37">
-        <v>0.329097711139525</v>
+        <v>0.5</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.880681818181818</v>
+        <v>0.869318181818182</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.574</v>
+        <v>0.5628</v>
       </c>
       <c r="K37">
-        <v>0.0014364001944725</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>-0.0041946604227238</v>
+        <v>-0.0051717525302128</v>
       </c>
       <c r="M37">
-        <v>0.0063518713508884</v>
+        <v>0.0051293362724432</v>
       </c>
       <c r="N37">
-        <v>0.250243936319252</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1809485</v>
@@ -3210,40 +3210,40 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38">
-        <v>0.494112581759334</v>
+        <v>0.774173877953668</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.636363636363636</v>
+        <v>0.607954545454545</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>-0.0037172085091957</v>
       </c>
       <c r="L38">
-        <v>-0.0076977202439578</v>
+        <v>-0.010002558008903</v>
       </c>
       <c r="M38">
-        <v>0.0069768764050875</v>
+        <v>0.0045753568383002</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>-0.447856446891059</v>
       </c>
       <c r="O38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q38">
         <v>1809485</v>
@@ -3284,37 +3284,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.0031624192077375</v>
+        <v>0.0265902645260578</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.556818181818182</v>
+        <v>0.551136363636364</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="K39">
-        <v>0.001331513981633</v>
+        <v>0.0009186869940944001</v>
       </c>
       <c r="L39">
-        <v>0.0004984547844203</v>
+        <v>0.0002056222499974</v>
       </c>
       <c r="M39">
-        <v>0.0020949658519527</v>
+        <v>0.0016709105176383</v>
       </c>
       <c r="N39">
-        <v>2.46576663265375</v>
+        <v>1.73337168697058</v>
       </c>
       <c r="O39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q39">
         <v>1809485</v>
@@ -3355,37 +3355,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.226072131970191</v>
+        <v>0.676165856003103</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.960227272727273</v>
+        <v>0.954545454545455</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>7.47</v>
+        <v>7.415</v>
       </c>
       <c r="K40">
-        <v>0.0598551629607067</v>
+        <v>-0.0293391737789374</v>
       </c>
       <c r="L40">
-        <v>-0.0889386159961444</v>
+        <v>-0.162361853572378</v>
       </c>
       <c r="M40">
-        <v>0.256215545496101</v>
+        <v>0.0983842985080338</v>
       </c>
       <c r="N40">
-        <v>0.801273935216957</v>
+        <v>-0.395673280902729</v>
       </c>
       <c r="O40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q40">
         <v>1809485</v>
@@ -3426,7 +3426,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.59675202974633</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3441,22 +3441,22 @@
         <v>0.27</v>
       </c>
       <c r="K41">
-        <v>0.0161385645604396</v>
+        <v>-0.0347998743014918</v>
       </c>
       <c r="L41">
         <v>-0.09288781204650071</v>
       </c>
       <c r="M41">
-        <v>0.0552483679998847</v>
+        <v>0.0066009426524088</v>
       </c>
       <c r="N41">
-        <v>5.97724613349613</v>
+        <v>-12.8888423338859</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q41">
         <v>1809485</v>
@@ -3494,7 +3494,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.768783636774762</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>91</v>
       </c>
       <c r="K42">
-        <v>1.71850463821892</v>
+        <v>-1.38301883830455</v>
       </c>
       <c r="L42">
         <v>-10.6783630746683</v>
       </c>
       <c r="M42">
-        <v>8.754157060689201</v>
+        <v>4.63482314118441</v>
       </c>
       <c r="N42">
-        <v>1.88846663540541</v>
+        <v>-1.51980092121379</v>
       </c>
       <c r="O42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P42" t="s">
         <v>48</v>
@@ -3562,7 +3562,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.768783636774762</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3577,19 +3577,19 @@
         <v>3.66</v>
       </c>
       <c r="K43">
-        <v>0.44581500550815</v>
+        <v>-0.261212987274393</v>
       </c>
       <c r="L43">
-        <v>-0.636816865012663</v>
+        <v>-1.43333018343737</v>
       </c>
       <c r="M43">
-        <v>1.0536873951739</v>
+        <v>0.683046277630876</v>
       </c>
       <c r="N43">
-        <v>12.1807378554139</v>
+        <v>-7.13696686542059</v>
       </c>
       <c r="O43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43" t="s">
         <v>48</v>
@@ -3630,7 +3630,7 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.5</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3642,25 +3642,25 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.2775</v>
+        <v>0.265</v>
       </c>
       <c r="K44">
-        <v>-0.0007239841427155</v>
+        <v>-0.0022156505914467</v>
       </c>
       <c r="L44">
-        <v>-0.02462025453448</v>
+        <v>-0.0294122772280031</v>
       </c>
       <c r="M44">
-        <v>0.0163643200794526</v>
+        <v>0.0132061982943931</v>
       </c>
       <c r="N44">
-        <v>-0.260895186564166</v>
+        <v>-0.836094562810103</v>
       </c>
       <c r="O44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q44">
         <v>1809485</v>
@@ -3698,13 +3698,13 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.464222020750296</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3713,22 +3713,22 @@
         <v>91.05500000000001</v>
       </c>
       <c r="K45">
-        <v>-0.249317406143345</v>
+        <v>-0.855386416861827</v>
       </c>
       <c r="L45">
-        <v>-2.64698096962303</v>
+        <v>-2.88816852617009</v>
       </c>
       <c r="M45">
-        <v>2.02239826942795</v>
+        <v>0.463905598655569</v>
       </c>
       <c r="N45">
-        <v>-0.27380968221772</v>
+        <v>-0.939417293791474</v>
       </c>
       <c r="O45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q45">
         <v>1809485</v>
@@ -3766,7 +3766,7 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.570986171506239</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3781,22 +3781,22 @@
         <v>3.73</v>
       </c>
       <c r="K46">
-        <v>0.0133791208791209</v>
+        <v>-0.0281598639455782</v>
       </c>
       <c r="L46">
-        <v>-0.250781318815791</v>
+        <v>-0.295653699348118</v>
       </c>
       <c r="M46">
-        <v>0.260188772324857</v>
+        <v>0.219165002232754</v>
       </c>
       <c r="N46">
-        <v>0.35868956780485</v>
+        <v>-0.754956137951159</v>
       </c>
       <c r="O46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q46">
         <v>1809485</v>
@@ -3834,7 +3834,7 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.421542614634992</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3846,25 +3846,25 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.2775</v>
+        <v>0.27</v>
       </c>
       <c r="K47">
-        <v>-0.0007239841427155</v>
+        <v>-0.0014009589041095</v>
       </c>
       <c r="L47">
-        <v>-0.0132769926226437</v>
+        <v>-0.0102594144995616</v>
       </c>
       <c r="M47">
-        <v>0.0058334313543396</v>
+        <v>0.00423977781418</v>
       </c>
       <c r="N47">
-        <v>-0.260895186564166</v>
+        <v>-0.518873668188737</v>
       </c>
       <c r="O47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q47">
         <v>1809485</v>
@@ -3902,37 +3902,37 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.185939696383049</v>
+        <v>0.364357596287925</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.866666666666667</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>91.11</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>-0.834035433070866</v>
+        <v>-0.30319590481461</v>
       </c>
       <c r="L48">
-        <v>-2.10076464106189</v>
+        <v>-1.49463600872982</v>
       </c>
       <c r="M48">
-        <v>0.507206907469688</v>
+        <v>0.677348840303562</v>
       </c>
       <c r="N48">
-        <v>-0.91541590722299</v>
+        <v>-0.333182312983088</v>
       </c>
       <c r="O48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q48">
         <v>1809485</v>
@@ -3970,7 +3970,7 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.162211845260789</v>
+        <v>0.09910530951942099</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3982,25 +3982,25 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>3.815</v>
+        <v>3.8</v>
       </c>
       <c r="K49">
-        <v>-0.0810131533700138</v>
+        <v>-0.08165052160953799</v>
       </c>
       <c r="L49">
-        <v>-0.238661391285474</v>
+        <v>-0.228725165138506</v>
       </c>
       <c r="M49">
-        <v>0.0455561243626306</v>
+        <v>0.0110526562281809</v>
       </c>
       <c r="N49">
-        <v>-2.12354268335554</v>
+        <v>-2.14869793709311</v>
       </c>
       <c r="O49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P49" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q49">
         <v>1809485</v>
@@ -4038,34 +4038,34 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.914530659824844</v>
+        <v>0.903483563691385</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.789473684210526</v>
+        <v>0.8</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>85</v>
+        <v>87.11499999999999</v>
       </c>
       <c r="K50">
-        <v>0.504953917050691</v>
+        <v>0.503507886360397</v>
       </c>
       <c r="L50">
-        <v>-0.245218237717009</v>
+        <v>-0.275351894340102</v>
       </c>
       <c r="M50">
-        <v>1.39091843164861</v>
+        <v>1.12850829771223</v>
       </c>
       <c r="N50">
-        <v>0.594063431824343</v>
+        <v>0.577980699489637</v>
       </c>
       <c r="O50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P50" t="s">
         <v>56</v>
